--- a/bin/com/excel/data/Half_EbayExcelData.xlsx
+++ b/bin/com/excel/data/Half_EbayExcelData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>firstname</t>
   </si>
@@ -91,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -151,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
@@ -162,6 +192,9 @@
     <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -463,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -474,6 +507,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="4" max="9" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="6.58984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.58984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="6.58984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -507,6 +542,15 @@
       <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="K1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -539,6 +583,12 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -571,6 +621,12 @@
       <c r="J3" t="s">
         <v>6</v>
       </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -603,6 +659,12 @@
       <c r="J4" t="s">
         <v>6</v>
       </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -635,6 +697,12 @@
       <c r="J5" t="s">
         <v>6</v>
       </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -667,6 +735,12 @@
       <c r="J6" t="s">
         <v>6</v>
       </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -699,6 +773,12 @@
       <c r="J7" t="s">
         <v>6</v>
       </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -711,6 +791,12 @@
         <v>43178</v>
       </c>
       <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
         <v>6</v>
       </c>
     </row>
